--- a/img/points_of_map.xlsx
+++ b/img/points_of_map.xlsx
@@ -13,13 +13,21 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>img - 200%</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -38,8 +46,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -52,6 +61,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -61,7 +78,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,100 +100,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,6 +197,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -201,175 +281,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,15 +400,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -412,6 +411,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,17 +471,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,148 +493,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -956,15 +964,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AY56"/>
+  <dimension ref="A1:AY51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.2222222222222" customWidth="1"/>
+    <col min="2" max="50" width="5.62962962962963" customWidth="1"/>
+    <col min="51" max="51" width="4.44444444444444" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:51">
+    <row r="1" spans="1:51">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -1141,12 +1157,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="D4">
         <v>0</v>
+      </c>
+      <c r="E4">
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1403,31 +1422,6 @@
     <row r="51" spans="1:1">
       <c r="A51" s="1">
         <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/img/points_of_map.xlsx
+++ b/img/points_of_map.xlsx
@@ -182,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +192,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,144 +499,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -638,11 +644,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -967,7 +976,7 @@
   <dimension ref="A1:AY51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -1132,296 +1141,539 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="O2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
         <v>60</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="H3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4">
         <v>130</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="I4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="D5">
+        <v>130</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>54</v>
+      </c>
+      <c r="K5">
+        <v>62</v>
+      </c>
+      <c r="M5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="E6">
+        <v>54</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>22</v>
+      </c>
+      <c r="N6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="C8">
+        <v>52</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="R8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>26</v>
+      </c>
+      <c r="S9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="I10">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="J11">
+        <v>94</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>16</v>
+      </c>
+      <c r="V11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="K12">
+        <v>16</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+      <c r="W12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="E13">
+        <v>59</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="F14">
+        <v>59</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>142</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>32</v>
+      </c>
+      <c r="AC15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="O16">
+        <v>32</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>13</v>
+      </c>
+      <c r="R16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="P17">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="P18">
+        <v>51</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="AA27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="AC29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="AE31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="AF32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="AG33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="AH34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="AI35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="AJ36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="AK37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="AL38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="AM39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="AN40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="AO41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="AP42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="AQ43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="AR44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="AS45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="AT46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="AU47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="AV48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:49">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="AW49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="AX50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:51">
       <c r="A51" s="1">
         <v>50</v>
+      </c>
+      <c r="AY51" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/img/points_of_map.xlsx
+++ b/img/points_of_map.xlsx
@@ -976,7 +976,7 @@
   <dimension ref="A1:AY51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -1277,7 +1277,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1289,6 +1289,9 @@
       </c>
       <c r="K10">
         <v>94</v>
+      </c>
+      <c r="V10">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1390,7 +1393,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1400,8 +1403,14 @@
       <c r="Q17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="U17">
+        <v>44</v>
+      </c>
+      <c r="AD17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1411,45 +1420,85 @@
       <c r="R18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="S19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="T19">
+        <v>15</v>
+      </c>
+      <c r="V19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="U20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="V21">
+        <v>85</v>
+      </c>
+      <c r="W21"/>
+      <c r="Z21">
+        <v>79</v>
+      </c>
+      <c r="AE21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="V22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="W22">
+        <v>79</v>
+      </c>
+      <c r="Y22">
+        <v>44</v>
+      </c>
+      <c r="Z22">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="1">
         <v>22</v>
       </c>
+      <c r="V23">
+        <v>79</v>
+      </c>
       <c r="W23" s="2">
         <v>0</v>
+      </c>
+      <c r="X23">
+        <v>40</v>
+      </c>
+      <c r="AA23">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:24">
